--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="location" sheetId="5" r:id="rId5"/>
     <sheet name="AP Point" sheetId="10" r:id="rId6"/>
     <sheet name="poi collection" sheetId="12" r:id="rId7"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId8"/>
+    <sheet name="electronic fence" sheetId="15" r:id="rId8"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="180">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +162,6 @@
   </si>
   <si>
     <t>POINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -194,14 +191,6 @@
   </si>
   <si>
     <t>注记坐标，必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位点坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geometry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,6 +663,94 @@
   <si>
     <t>新增表
 Appoint，POIcollection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：electronic_fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`-10~128
+null：表示1层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在楼层id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏的种别（危险系数）
+1-4，系数越大，越危险
+默认null为4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：注意
+2：预警
+3：部分时间禁止
+4：完全禁止
+default：4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>定位点坐标</t>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位信息的时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>陈雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronic fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.4</t>
+  </si>
+  <si>
+    <t>新增表
+electronic fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加字段时间戳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -686,7 +763,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1105,11 +1182,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1444,7 +1521,7 @@
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1485,7 +1562,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1546,10 +1623,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1577,7 +1654,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1608,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1630,16 +1707,16 @@
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1664,13 +1741,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1730,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1850,7 +1927,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1918,7 +1995,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2591,7 +2668,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2679,7 +2756,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2710,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2732,16 +2809,16 @@
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2766,13 +2843,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2952,7 +3029,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3020,7 +3097,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3686,7 +3763,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3735,10 +3812,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3760,7 +3837,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3779,13 +3856,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3801,16 +3878,16 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3829,13 +3906,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3876,14 +3953,14 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3899,13 +3976,13 @@
     <row r="12" spans="2:16" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
@@ -3928,10 +4005,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3993,16 +4070,16 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4018,16 +4095,16 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4043,16 +4120,16 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4068,14 +4145,14 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4091,14 +4168,14 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4114,14 +4191,14 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4137,14 +4214,14 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4160,14 +4237,14 @@
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4217,7 +4294,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4745,7 +4822,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4794,10 +4871,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4813,13 +4890,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -4841,10 +4918,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4860,16 +4937,16 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4885,16 +4962,16 @@
     <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -4910,7 +4987,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -4935,16 +5012,16 @@
     <row r="11" spans="2:16" ht="57" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -4960,16 +5037,16 @@
     <row r="12" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -4985,16 +5062,16 @@
     <row r="13" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5010,14 +5087,14 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5056,7 +5133,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -5065,7 +5142,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5090,7 +5167,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5140,7 +5217,7 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5630,10 +5707,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T41"/>
+  <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5642,7 +5719,7 @@
     <col min="2" max="2" width="8.875" style="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
@@ -5672,7 +5749,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5745,14 +5822,14 @@
     <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5772,16 +5849,16 @@
     <row r="7" spans="2:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5801,14 +5878,14 @@
     <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5825,19 +5902,19 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>42</v>
+      <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5854,12 +5931,18 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -5898,9 +5981,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5921,7 +6002,9 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6527,6 +6610,27 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6579,7 +6683,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6652,14 +6756,14 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -6679,14 +6783,14 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -6715,7 +6819,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -6740,13 +6844,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -6777,7 +6881,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6839,7 +6943,7 @@
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7480,7 +7584,7 @@
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7519,7 +7623,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7592,14 +7696,14 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7619,14 +7723,14 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -7646,14 +7750,14 @@
     <row r="8" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -7675,14 +7779,14 @@
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7713,7 +7817,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7738,13 +7842,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7775,7 +7879,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -7837,7 +7941,7 @@
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -8474,15 +8578,898 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="32.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8490,99 +9477,123 @@
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F3" s="31">
         <v>42653</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F4" s="32">
         <v>42716</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5" s="32">
         <v>42800</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="32">
+        <v>42870</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="32">
+        <v>42872</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="184">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,10 +195,6 @@
   </si>
   <si>
     <t>group_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -751,6 +743,31 @@
   </si>
   <si>
     <t>增加字段时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.5</t>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名和字段类型根据数据库实际调整
+id→fid
+各id的字段类型改为varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1521,7 +1538,7 @@
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1579,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1623,10 +1640,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1645,16 +1662,16 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1676,16 +1693,16 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1707,16 +1724,16 @@
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1738,16 +1755,16 @@
     <row r="9" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1775,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1800,14 +1817,14 @@
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1829,7 +1846,7 @@
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -1893,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1924,10 +1941,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1995,7 +2012,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2627,7 +2644,7 @@
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2668,7 +2685,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2747,16 +2764,16 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2778,16 +2795,16 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2809,16 +2826,16 @@
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2840,16 +2857,16 @@
     <row r="9" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2902,14 +2919,14 @@
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2931,7 +2948,7 @@
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -2998,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3026,10 +3043,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3097,7 +3114,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3728,7 +3745,7 @@
   <dimension ref="B1:P54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3763,7 +3780,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3812,10 +3829,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3828,16 +3845,16 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3853,16 +3870,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3878,16 +3895,16 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -3903,16 +3920,16 @@
     <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3934,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3953,14 +3970,14 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3976,16 +3993,16 @@
     <row r="12" spans="2:16" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -4001,14 +4018,14 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -4024,7 +4041,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -4070,16 +4087,16 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4095,16 +4112,16 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4120,16 +4137,16 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4145,14 +4162,14 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4168,14 +4185,14 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4191,14 +4208,14 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4214,14 +4231,14 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4237,14 +4254,14 @@
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4294,7 +4311,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4822,7 +4839,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4871,10 +4888,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4887,16 +4904,16 @@
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -4912,16 +4929,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4937,16 +4954,16 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4962,16 +4979,16 @@
     <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -4987,16 +5004,16 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5012,16 +5029,16 @@
     <row r="11" spans="2:16" ht="57" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5037,16 +5054,16 @@
     <row r="12" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5062,16 +5079,16 @@
     <row r="13" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5087,14 +5104,14 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5133,16 +5150,16 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5164,10 +5181,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5217,7 +5234,7 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5709,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5749,7 +5766,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5822,14 +5839,14 @@
     <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5849,16 +5866,16 @@
     <row r="7" spans="2:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5878,14 +5895,14 @@
     <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5905,16 +5922,16 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5934,14 +5951,14 @@
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6003,7 +6020,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6683,7 +6700,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6756,14 +6773,14 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -6783,14 +6800,14 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -6810,16 +6827,16 @@
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -6841,16 +6858,16 @@
     <row r="9" spans="2:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -6878,10 +6895,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6943,7 +6960,7 @@
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7584,7 +7601,7 @@
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7623,7 +7640,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7696,14 +7713,14 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7723,14 +7740,14 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -7750,14 +7767,14 @@
     <row r="8" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -7779,14 +7796,14 @@
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7808,16 +7825,16 @@
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7839,16 +7856,16 @@
     <row r="11" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7876,10 +7893,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -7941,7 +7958,7 @@
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -8581,7 +8598,7 @@
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8620,7 +8637,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -8689,16 +8706,16 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8714,16 +8731,16 @@
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -8739,16 +8756,16 @@
     <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -8764,16 +8781,16 @@
     <row r="9" spans="2:20" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8795,10 +8812,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8814,14 +8831,14 @@
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8866,10 +8883,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8927,7 +8944,7 @@
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -9462,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9477,131 +9494,143 @@
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>149</v>
       </c>
       <c r="F3" s="31">
         <v>42653</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="F4" s="32">
         <v>42716</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="F5" s="32">
         <v>42800</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" s="32">
         <v>42870</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" s="32">
         <v>42872</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="32">
+        <v>42907</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="188">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>端点是否有可跨楼层信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>integer4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,21 +223,6 @@
   </si>
   <si>
     <t>从1开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：可上楼
--1：可下楼
-0：可上下楼
-其他值：无跨楼层信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一楼层对应point的ID，当node的值为1、0时，必须存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一楼层对应point的ID，当node的值为-1、0时，必须存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,6 +749,41 @@
     <t>字段名和字段类型根据数据库实际调整
 id→fid
 各id的字段类型改为varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一楼梯或电梯的标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point
+跨楼层的字段更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只电梯楼梯等可跨楼层feature有效
+同一楼梯或电梯，在不同楼层，但node相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只电梯楼梯等可跨楼层feature有效
+最高可上楼层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只电梯楼梯等可跨楼层feature有效
+最高可下楼层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.6</t>
+  </si>
+  <si>
+    <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1579,7 +1595,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1640,10 +1656,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1662,13 +1678,13 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
@@ -1699,10 +1715,10 @@
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1730,7 +1746,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -1761,10 +1777,10 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1824,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2012,7 +2028,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2685,7 +2701,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2764,13 +2780,13 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
@@ -2801,10 +2817,10 @@
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2832,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -2863,10 +2879,10 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3114,7 +3130,7 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3780,7 +3796,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3829,10 +3845,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3851,7 +3867,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
@@ -3873,10 +3889,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>37</v>
@@ -3901,7 +3917,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -3926,10 +3942,10 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3970,14 +3986,14 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3993,10 +4009,10 @@
     <row r="12" spans="2:16" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>44</v>
@@ -4022,10 +4038,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -4087,16 +4103,16 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4112,16 +4128,16 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4137,16 +4153,16 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4162,14 +4178,14 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4185,14 +4201,14 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4208,14 +4224,14 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4231,14 +4247,14 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4254,14 +4270,14 @@
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4311,7 +4327,7 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4804,7 +4820,7 @@
   <dimension ref="B1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4839,7 +4855,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4888,10 +4904,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4907,10 +4923,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
@@ -4935,7 +4951,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>37</v>
@@ -4960,7 +4976,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -4979,16 +4995,16 @@
     <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5004,7 +5020,7 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -5026,19 +5042,19 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
+      <c r="F11" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5054,16 +5070,16 @@
     <row r="12" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5079,16 +5095,16 @@
     <row r="13" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5104,14 +5120,14 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5150,7 +5166,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -5159,7 +5175,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5234,7 +5250,7 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5766,7 +5782,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5839,14 +5855,14 @@
     <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5866,10 +5882,10 @@
     <row r="7" spans="2:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -5902,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5922,16 +5938,16 @@
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5951,14 +5967,14 @@
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6020,7 +6036,7 @@
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6700,7 +6716,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6773,14 +6789,14 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -6800,14 +6816,14 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -6836,7 +6852,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -6867,7 +6883,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -6898,7 +6914,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6960,7 +6976,7 @@
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7640,7 +7656,7 @@
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7713,14 +7729,14 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7740,14 +7756,14 @@
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -7767,14 +7783,14 @@
     <row r="8" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -7796,14 +7812,14 @@
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7831,10 +7847,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7862,10 +7878,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7896,7 +7912,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -7958,7 +7974,7 @@
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -8637,7 +8653,7 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -8706,13 +8722,13 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
@@ -8737,7 +8753,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>37</v>
@@ -8759,13 +8775,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -8781,16 +8797,16 @@
     <row r="9" spans="2:20" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8838,7 +8854,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8944,7 +8960,7 @@
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -9480,7 +9496,7 @@
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9494,151 +9510,163 @@
     <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="F3" s="31">
         <v>42653</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="32">
         <v>42716</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="32">
         <v>42800</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>173</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F6" s="32">
         <v>42870</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F7" s="32">
         <v>42872</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F8" s="32">
         <v>42907</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="32">
+        <v>42915</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -12,12 +12,13 @@
     <sheet name="Polyline" sheetId="3" r:id="rId3"/>
     <sheet name="注记" sheetId="1" r:id="rId4"/>
     <sheet name="location" sheetId="5" r:id="rId5"/>
-    <sheet name="AP Point" sheetId="10" r:id="rId6"/>
-    <sheet name="poi collection" sheetId="12" r:id="rId7"/>
-    <sheet name="electronic fence" sheetId="15" r:id="rId8"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId9"/>
+    <sheet name="asset_init_locate" sheetId="16" r:id="rId6"/>
+    <sheet name="AP Point" sheetId="10" r:id="rId7"/>
+    <sheet name="poi collection" sheetId="12" r:id="rId8"/>
+    <sheet name="electronic fence" sheetId="15" r:id="rId9"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="230">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,12 +662,6 @@
   </si>
   <si>
     <t>所在楼层id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子围栏的种别（危险系数）
-1-4，系数越大，越危险
-默认null为4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -790,11 +785,187 @@
     <t>陈雅婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>表名：asset_init_locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid，唯一，主键
+※ 增删改用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产编号，唯一，
+※对应传入参数的deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产分类
+※使用国标编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属电子围栏编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属楼层编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_geom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geometry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7位数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏的种别（危险系数）
+1-4，系数越大，越危险
+默认null为4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4，系数越大，越危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产初始信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.7</t>
+  </si>
+  <si>
+    <t>asset_init_locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+asset_init_locate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.8</t>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加字段angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注记旋转角度，默认为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~pi-pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -1550,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1678,7 +1849,7 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
@@ -2655,8 +2826,645 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B1:G62"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="31">
+        <v>42653</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="32">
+        <v>42716</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="32">
+        <v>42800</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="32">
+        <v>42870</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="32">
+        <v>42872</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="32">
+        <v>42907</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="32">
+        <v>42915</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="32">
+        <v>42926</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="32">
+        <v>42976</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="18"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="18"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="18"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="18"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="18"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="18"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="18"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="18"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C62" xr:uid="{00000000-0002-0000-0900-000000000000}">
+      <formula1>"add,update,delete"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2780,7 +3588,7 @@
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
@@ -3757,7 +4565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4816,11 +5624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4976,7 +5784,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -5048,13 +5856,13 @@
         <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5079,7 +5887,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5104,7 +5912,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5188,19 +5996,19 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>39</v>
+      <c r="C17" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5213,12 +6021,20 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -5249,9 +6065,7 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -5268,7 +6082,9 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -5726,10 +6542,27 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5739,11 +6572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:T42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5941,13 +6774,13 @@
         <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5967,14 +6800,14 @@
     <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6673,11 +7506,1109 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:T48"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:V42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7612,8 +9543,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8609,12 +10540,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8722,7 +10653,7 @@
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>47</v>
@@ -8800,13 +10731,13 @@
         <v>154</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -9489,617 +11420,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="31">
-        <v>42653</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="32">
-        <v>42716</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="32">
-        <v>42800</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="32">
-        <v>42870</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="32">
-        <v>42872</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="32">
-        <v>42907</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="32">
-        <v>42915</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C62">
-      <formula1>"add,update,delete"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="AP Point" sheetId="10" r:id="rId7"/>
     <sheet name="poi collection" sheetId="12" r:id="rId8"/>
     <sheet name="electronic fence" sheetId="15" r:id="rId9"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId10"/>
+    <sheet name="attendance fence" sheetId="17" r:id="rId10"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="242">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -959,6 +960,54 @@
   </si>
   <si>
     <t>~pi-pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员签到围栏信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域id，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fence_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子围栏的编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pfence_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.9</t>
+  </si>
+  <si>
+    <t>attendance fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+attendance fence（人员签到用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏坐标，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到围栏的编号，必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2827,11 +2876,771 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
+  <dimension ref="B1:P40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3044,12 +3853,24 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="32">
+        <v>42979</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
@@ -5627,7 +6448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -6573,10 +7394,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:T42"/>
+  <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6590,8 +7411,8 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6607,12 +7428,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>102</v>
@@ -6630,12 +7447,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6651,12 +7464,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -6680,12 +7489,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
@@ -6707,12 +7512,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:20" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:16" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>87</v>
@@ -6736,12 +7537,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>41</v>
@@ -6763,12 +7560,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>63</v>
@@ -6792,12 +7585,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="8" t="s">
         <v>161</v>
@@ -6819,12 +7608,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -6840,12 +7625,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6861,12 +7642,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>101</v>
@@ -6884,12 +7661,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6905,12 +7678,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6926,12 +7695,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6947,12 +7712,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6968,12 +7729,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6989,12 +7746,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7010,12 +7763,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -7031,12 +7780,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -7052,12 +7797,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7073,12 +7814,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7094,12 +7831,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -7115,12 +7848,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -7136,12 +7865,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -7157,12 +7882,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -7178,12 +7899,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7199,12 +7916,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -7220,12 +7933,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7241,12 +7950,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -7262,12 +7967,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7283,12 +7984,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -7304,12 +8001,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7325,12 +8018,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -7346,12 +8035,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -7367,12 +8052,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -7388,12 +8069,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -7409,12 +8086,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -7430,12 +8103,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -7451,12 +8120,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -7472,12 +8137,8 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7493,10 +8154,6 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7507,10 +8164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:T48"/>
+  <dimension ref="B1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7524,8 +8181,8 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7541,12 +8198,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>218</v>
@@ -7564,12 +8217,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7585,12 +8234,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -7614,12 +8259,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>108</v>
@@ -7641,12 +8282,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>190</v>
@@ -7668,12 +8305,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>191</v>
@@ -7695,12 +8328,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>194</v>
@@ -7722,12 +8351,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
         <v>215</v>
@@ -7749,12 +8374,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
         <v>196</v>
@@ -7778,12 +8399,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
         <v>199</v>
@@ -7807,12 +8424,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
         <v>202</v>
@@ -7834,12 +8447,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
         <v>203</v>
@@ -7861,12 +8470,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="14" t="s">
         <v>205</v>
@@ -7888,12 +8493,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="8" t="s">
         <v>208</v>
@@ -7917,12 +8518,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7938,12 +8535,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7959,12 +8552,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>187</v>
@@ -7982,12 +8571,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8003,12 +8588,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -8024,12 +8605,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -8045,12 +8622,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -8066,12 +8639,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -8087,12 +8656,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -8108,12 +8673,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -8129,12 +8690,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8150,12 +8707,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -8171,12 +8724,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -8192,12 +8741,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -8213,12 +8758,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8234,12 +8775,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8255,12 +8792,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -8276,12 +8809,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -8297,12 +8826,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -8318,12 +8843,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -8339,12 +8860,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -8360,12 +8877,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -8381,12 +8894,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -8402,12 +8911,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -8423,12 +8928,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -8444,12 +8945,8 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -8465,12 +8962,8 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -8486,12 +8979,8 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -8507,12 +8996,8 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -8528,12 +9013,8 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -8549,12 +9030,8 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -8570,12 +9047,8 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -8591,10 +9064,6 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8605,10 +9074,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:V42"/>
+  <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8622,8 +9091,8 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -8639,12 +9108,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>94</v>
@@ -8662,12 +9127,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8683,12 +9144,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -8712,12 +9169,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>88</v>
@@ -8739,12 +9192,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>89</v>
@@ -8766,12 +9215,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -8795,14 +9240,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="2:22" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:16" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -8826,14 +9265,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="8" t="s">
         <v>5</v>
@@ -8857,12 +9290,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -8878,12 +9307,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8899,12 +9324,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>95</v>
@@ -8922,12 +9343,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -8943,12 +9360,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -8964,12 +9377,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -8985,12 +9394,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -9006,12 +9411,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -9027,12 +9428,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -9048,12 +9445,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -9069,12 +9462,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -9090,12 +9479,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -9111,12 +9496,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -9132,12 +9513,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -9153,12 +9530,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9174,12 +9547,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -9195,12 +9564,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9216,12 +9581,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9237,12 +9598,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -9258,12 +9615,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -9279,12 +9632,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -9300,12 +9649,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -9321,12 +9666,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -9342,12 +9683,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -9363,12 +9700,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -9384,12 +9717,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -9405,12 +9734,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -9426,12 +9751,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -9447,12 +9768,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -9468,12 +9785,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -9489,12 +9802,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -9510,12 +9819,8 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -9531,10 +9836,6 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9545,10 +9846,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:V44"/>
+  <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9562,8 +9863,8 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9579,12 +9880,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>100</v>
@@ -9602,12 +9899,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9623,12 +9916,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -9652,12 +9941,8 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>103</v>
@@ -9679,12 +9964,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>104</v>
@@ -9706,12 +9987,8 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>105</v>
@@ -9733,14 +10010,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>106</v>
@@ -9762,14 +10033,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
         <v>18</v>
@@ -9793,14 +10058,8 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
@@ -9824,14 +10083,8 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="8" t="s">
         <v>5</v>
@@ -9855,12 +10108,8 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9876,12 +10125,8 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9897,12 +10142,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>116</v>
@@ -9920,12 +10161,8 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -9941,12 +10178,8 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -9962,12 +10195,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -9983,12 +10212,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10004,12 +10229,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10025,12 +10246,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10046,12 +10263,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -10067,12 +10280,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10088,12 +10297,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10109,12 +10314,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10130,12 +10331,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10151,12 +10348,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10172,12 +10365,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10193,12 +10382,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10214,12 +10399,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10235,12 +10416,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10256,12 +10433,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10277,12 +10450,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10298,12 +10467,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -10319,12 +10484,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -10340,12 +10501,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10361,12 +10518,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -10382,12 +10535,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -10403,12 +10552,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -10424,12 +10569,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -10445,12 +10586,8 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -10466,12 +10603,8 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10487,12 +10620,8 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -10508,12 +10637,8 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -10529,10 +10654,6 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10542,10 +10663,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:T40"/>
+  <dimension ref="B1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10559,8 +10680,8 @@
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -10576,12 +10697,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>153</v>
@@ -10599,12 +10716,8 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10620,12 +10733,8 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -10650,7 +10759,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>174</v>
@@ -10675,7 +10784,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -10700,7 +10809,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>19</v>
@@ -10709,7 +10818,7 @@
         <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>157</v>
@@ -10725,7 +10834,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>154</v>
@@ -10750,7 +10859,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
         <v>4</v>
@@ -10775,7 +10884,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
         <v>21</v>
@@ -10798,7 +10907,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -10821,19 +10930,17 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>39</v>
+      <c r="C13" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -10846,12 +10953,20 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10862,12 +10977,8 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -10883,16 +10994,10 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -10906,14 +11011,12 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -10927,12 +11030,8 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -10948,12 +11047,8 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10969,12 +11064,8 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10990,12 +11081,8 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11011,12 +11098,8 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -11032,12 +11115,8 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11053,12 +11132,8 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11074,12 +11149,8 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11095,12 +11166,8 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -11116,12 +11183,8 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -11137,12 +11200,8 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -11158,12 +11217,8 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -11179,12 +11234,8 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -11200,12 +11251,8 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -11221,12 +11268,8 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11242,12 +11285,8 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11263,12 +11302,8 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -11284,12 +11319,8 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -11305,12 +11336,8 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -11326,12 +11353,8 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -11347,12 +11370,8 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -11368,12 +11387,8 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -11389,12 +11404,8 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -11410,10 +11421,23 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="注记" sheetId="1" r:id="rId4"/>
     <sheet name="location" sheetId="5" r:id="rId5"/>
     <sheet name="asset_init_locate" sheetId="16" r:id="rId6"/>
-    <sheet name="AP Point" sheetId="10" r:id="rId7"/>
-    <sheet name="poi collection" sheetId="12" r:id="rId8"/>
-    <sheet name="electronic fence" sheetId="15" r:id="rId9"/>
-    <sheet name="attendance fence" sheetId="17" r:id="rId10"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId11"/>
+    <sheet name="camera Info" sheetId="18" r:id="rId7"/>
+    <sheet name="AP Point" sheetId="10" r:id="rId8"/>
+    <sheet name="poi collection" sheetId="12" r:id="rId9"/>
+    <sheet name="electronic fence" sheetId="15" r:id="rId10"/>
+    <sheet name="attendance fence" sheetId="17" r:id="rId11"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="260">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,6 +1009,78 @@
   </si>
   <si>
     <t>签到围栏的编号，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控相机初始信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机ip，唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvr_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接NVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：cameraInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.10</t>
+  </si>
+  <si>
+    <t>camera Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+camera Info（储存监控相机的基础信息）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1091,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,6 +1113,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1389,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1443,6 +1523,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2876,11 +2973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
-  <dimension ref="B1:P40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2915,7 +3012,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2979,7 +3076,7 @@
         <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>112</v>
@@ -3010,7 +3107,7 @@
         <v>111</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3032,7 +3129,7 @@
         <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>157</v>
@@ -3048,19 +3145,19 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+        <v>154</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>111</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3076,14 +3173,16 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3099,14 +3198,14 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -3121,15 +3220,15 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>241</v>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3142,19 +3241,17 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>240</v>
+      <c r="C13" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3167,12 +3264,20 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3203,9 +3308,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3222,7 +3325,9 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3628,6 +3733,23 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3636,11 +3758,771 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
+  <dimension ref="B1:P40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3873,12 +4755,24 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="32">
+        <v>43024</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
@@ -9073,6 +9967,891 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555419B-A5B4-40B5-8369-E068ACA90498}">
+  <dimension ref="B1:P47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:P42"/>
   <sheetViews>
@@ -9844,7 +11623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:P44"/>
   <sheetViews>
@@ -10659,789 +12438,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:P41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2237,7 +2237,7 @@
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
@@ -2246,7 +2246,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4521,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -6283,7 +6283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
@@ -9061,7 +9061,7 @@
   <dimension ref="B1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9971,7 +9971,7 @@
   <dimension ref="B1:P47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="264">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1081,6 +1081,24 @@
   <si>
     <t>新增表
 camera Info（储存监控相机的基础信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要penup的geom编号组
+3d地图时有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geom编号
+例：1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1469,7 +1487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1540,6 +1558,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1868,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V44"/>
+  <dimension ref="B1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2094,7 +2118,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>127</v>
@@ -2265,19 +2289,19 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
+      <c r="C15" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>261</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2296,12 +2320,20 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2344,9 +2376,7 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2369,7 +2399,9 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2964,6 +2996,29 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1F5CE43-ED0E-4ACC-B1B2-F39A34EA25FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -18,7 +19,8 @@
     <sheet name="poi collection" sheetId="12" r:id="rId9"/>
     <sheet name="electronic fence" sheetId="15" r:id="rId10"/>
     <sheet name="attendance fence" sheetId="17" r:id="rId11"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId12"/>
+    <sheet name="priority" sheetId="19" r:id="rId12"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="275">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,6 +1101,87 @@
   <si>
     <t>geom编号
 例：1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.11</t>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雅婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evel</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature的优先度，数字越大，提取优先度越高
+* 最大数表示不提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1开始数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon的feature优先度表（历史轨迹不穿墙用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+priority（polygon的feature优先度，历史轨迹不穿墙用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1562,6 +1645,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3907,7 @@
   <dimension ref="B1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4573,11 +4663,627 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAD110D-A36A-4456-AD35-64FB3548A25E}">
+  <dimension ref="B1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4830,12 +5536,24 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="32">
+        <v>43200</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1F5CE43-ED0E-4ACC-B1B2-F39A34EA25FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{36B880AC-694C-4605-893A-E9A1D665EF01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="electronic fence" sheetId="15" r:id="rId10"/>
     <sheet name="attendance fence" sheetId="17" r:id="rId11"/>
     <sheet name="priority" sheetId="19" r:id="rId12"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId13"/>
+    <sheet name="region" sheetId="20" r:id="rId13"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="281">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1182,6 +1183,30 @@
   <si>
     <t>新增表
 priority（polygon的feature优先度，历史轨迹不穿墙用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.12</t>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+region（服务看板的人数统计用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域坐标，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon的区域统计用表（服务看板的人数统计用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1570,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1654,6 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3907,7 +3933,7 @@
   <dimension ref="B1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A6" sqref="A6:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4666,7 +4692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAD110D-A36A-4456-AD35-64FB3548A25E}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -5279,11 +5305,702 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
+  <dimension ref="B1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,12 +6273,24 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="32">
+        <v>43227</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{36B880AC-694C-4605-893A-E9A1D665EF01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB2D9EAF-BFDD-48FB-BAC0-F1CA6AC037F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="285">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1207,22 @@
   </si>
   <si>
     <t>polygon的区域统计用表（服务看板的人数统计用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bison中的id，唯一，必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1595,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1680,6 +1696,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5306,10 +5324,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
-  <dimension ref="B1:P37"/>
+  <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5407,7 +5425,7 @@
       <c r="C6" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -5429,17 +5447,17 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
-      <c r="C7" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>96</v>
+      <c r="C7" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -5452,19 +5470,19 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
     </row>
-    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
       <c r="C8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -5477,19 +5495,19 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="36"/>
       <c r="C9" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -5502,19 +5520,19 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="36"/>
-      <c r="C10" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>279</v>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -5527,12 +5545,20 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>279</v>
+      </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -5563,9 +5589,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="36"/>
-      <c r="C13" s="52" t="s">
-        <v>278</v>
-      </c>
+      <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
@@ -5582,7 +5606,9 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="C14" s="52" t="s">
+        <v>278</v>
+      </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
@@ -5987,6 +6013,23 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB2D9EAF-BFDD-48FB-BAC0-F1CA6AC037F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACD6E5B2-ECDA-4115-9326-D5ED791DD1C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="attendance fence" sheetId="17" r:id="rId11"/>
     <sheet name="priority" sheetId="19" r:id="rId12"/>
     <sheet name="region" sheetId="20" r:id="rId13"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId14"/>
+    <sheet name="detain" sheetId="21" r:id="rId14"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="296">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1223,6 +1224,49 @@
   </si>
   <si>
     <t>bison中的id，唯一，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon的滞留统计用表（滞留报警用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：detain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.13</t>
+  </si>
+  <si>
+    <t>detain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+detain（滞留报警统计用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rentention_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞留限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.14</t>
+  </si>
+  <si>
+    <t>增加滞留时间的字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1698,6 +1742,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5326,7 +5373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -6039,11 +6086,752 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B918E-F7F0-4225-8E2E-A870DF8C9BF9}">
+  <dimension ref="B1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="13.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6336,20 +7124,44 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="32">
+        <v>43340</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="19"/>
+      <c r="B17" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="32">
+        <v>43341</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACD6E5B2-ECDA-4115-9326-D5ED791DD1C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF33AC5E-A290-48BF-AD4D-2F32AF5287BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5580" windowHeight="7350" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="priority" sheetId="19" r:id="rId12"/>
     <sheet name="region" sheetId="20" r:id="rId13"/>
     <sheet name="detain" sheetId="21" r:id="rId14"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId15"/>
+    <sheet name="danger" sheetId="22" r:id="rId15"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="300">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,6 +1268,23 @@
   </si>
   <si>
     <t>增加滞留时间的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表
+danger（危险区域报警用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygon的危险区域用表（危险区域报警用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2076,7 +2094,7 @@
   <dimension ref="B1:V45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3213,7 +3231,7 @@
   <dimension ref="B1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3509,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>240</v>
@@ -3998,7 +4016,7 @@
   <dimension ref="B1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4269,7 +4287,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>240</v>
@@ -5374,7 +5392,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5601,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>279</v>
@@ -6089,8 +6107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B918E-F7F0-4225-8E2E-A870DF8C9BF9}">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6342,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F12" s="57" t="s">
         <v>279</v>
@@ -6827,11 +6845,727 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83408E44-36B6-4215-B050-13A2AF74066B}">
+  <dimension ref="B1:P38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="13.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7164,12 +7898,24 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="32">
+        <v>43594</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF33AC5E-A290-48BF-AD4D-2F32AF5287BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63A1D0-FF41-4371-B40E-F4F49FBC6BB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="301">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1285,10 @@
   </si>
   <si>
     <t>polygon的危险区域用表（危险区域报警用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：attendance fence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4015,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4340,7 +4344,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -6848,7 +6852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83408E44-36B6-4215-B050-13A2AF74066B}">
   <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E63A1D0-FF41-4371-B40E-F4F49FBC6BB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3545903-6032-45DE-98D3-799C97B644B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="AP Point" sheetId="10" r:id="rId8"/>
     <sheet name="poi collection" sheetId="12" r:id="rId9"/>
     <sheet name="electronic fence" sheetId="15" r:id="rId10"/>
-    <sheet name="attendance fence" sheetId="17" r:id="rId11"/>
-    <sheet name="priority" sheetId="19" r:id="rId12"/>
-    <sheet name="region" sheetId="20" r:id="rId13"/>
-    <sheet name="detain" sheetId="21" r:id="rId14"/>
-    <sheet name="danger" sheetId="22" r:id="rId15"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId16"/>
+    <sheet name="electronic fence化工厂" sheetId="23" r:id="rId11"/>
+    <sheet name="attendance fence" sheetId="17" r:id="rId12"/>
+    <sheet name="priority" sheetId="19" r:id="rId13"/>
+    <sheet name="region" sheetId="20" r:id="rId14"/>
+    <sheet name="detain" sheetId="21" r:id="rId15"/>
+    <sheet name="detain_fence化工厂" sheetId="24" r:id="rId16"/>
+    <sheet name="danger" sheetId="22" r:id="rId17"/>
+    <sheet name="danger_fence化工厂" sheetId="25" r:id="rId18"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="310">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,6 +1294,44 @@
     <t>表名：attendance fence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>（化工厂只有访客用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：detain_fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：danger_fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronic fence化工厂
+detain_fence化工厂
+danger_fence化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表(新版后台用表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：electronicfence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1299,7 +1340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1326,6 +1367,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1677,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1767,6 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4016,11 +4065,799 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C42854-BBCC-4124-A095-DD746BE6C3B1}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4775,7 +5612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAD110D-A36A-4456-AD35-64FB3548A25E}">
   <dimension ref="B1:P34"/>
   <sheetViews>
@@ -5391,12 +6228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6107,7 +6944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B918E-F7F0-4225-8E2E-A870DF8C9BF9}">
   <dimension ref="B1:P39"/>
   <sheetViews>
@@ -6848,7 +7685,820 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E3D4F-0C30-4387-9708-85015F89F25D}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:P42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="13.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83408E44-36B6-4215-B050-13A2AF74066B}">
   <dimension ref="B1:P38"/>
   <sheetViews>
@@ -7564,18 +9214,807 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADED41-395A-4A8F-8993-00A4449A299D}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:P41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="13.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="32.25" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7922,12 +10361,24 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="32">
+        <v>43654</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3545903-6032-45DE-98D3-799C97B644B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E402E2F-A31B-4669-8A1D-94480E7052B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="3" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="attendance fence" sheetId="17" r:id="rId12"/>
     <sheet name="priority" sheetId="19" r:id="rId13"/>
     <sheet name="region" sheetId="20" r:id="rId14"/>
-    <sheet name="detain" sheetId="21" r:id="rId15"/>
-    <sheet name="detain_fence化工厂" sheetId="24" r:id="rId16"/>
-    <sheet name="danger" sheetId="22" r:id="rId17"/>
-    <sheet name="danger_fence化工厂" sheetId="25" r:id="rId18"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId19"/>
+    <sheet name="region_fence化工厂" sheetId="26" r:id="rId15"/>
+    <sheet name="detain" sheetId="21" r:id="rId16"/>
+    <sheet name="detain_fence化工厂" sheetId="24" r:id="rId17"/>
+    <sheet name="danger" sheetId="22" r:id="rId18"/>
+    <sheet name="danger_fence化工厂" sheetId="25" r:id="rId19"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="323">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,6 +1331,57 @@
   </si>
   <si>
     <t>表名：electronicfence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.1</t>
+  </si>
+  <si>
+    <t>region_fence化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表(新版后台用表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效区域人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合规检测开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：3,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开，关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：region_fence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6233,7 +6285,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6945,6 +6997,869 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814C7470-6BC2-45EF-B129-24C7152C5FAD}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B918E-F7F0-4225-8E2E-A870DF8C9BF9}">
   <dimension ref="B1:P39"/>
   <sheetViews>
@@ -7685,7 +8600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E3D4F-0C30-4387-9708-85015F89F25D}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7693,7 +8608,7 @@
   <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A13" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8498,7 +9413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83408E44-36B6-4215-B050-13A2AF74066B}">
   <dimension ref="B1:P38"/>
   <sheetViews>
@@ -9214,7 +10129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADED41-395A-4A8F-8993-00A4449A299D}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -9999,740 +10914,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B1:G62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="31">
-        <v>42653</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="32">
-        <v>42716</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="32">
-        <v>42800</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="32">
-        <v>42870</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="32">
-        <v>42872</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="32">
-        <v>42907</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="32">
-        <v>42915</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="32">
-        <v>42926</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="32">
-        <v>42976</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="32">
-        <v>42979</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="32">
-        <v>43024</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F14" s="32">
-        <v>43200</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="32">
-        <v>43227</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="32">
-        <v>43340</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="32">
-        <v>43341</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="32">
-        <v>43594</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="32">
-        <v>43654</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="18"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="18"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="18"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="22"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C62" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>"add,update,delete"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11837,6 +12018,752 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B1:G62"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="31">
+        <v>42653</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="32">
+        <v>42716</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="32">
+        <v>42800</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="32">
+        <v>42870</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="32">
+        <v>42872</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="32">
+        <v>42907</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="32">
+        <v>42915</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="32">
+        <v>42926</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="32">
+        <v>42976</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="32">
+        <v>42979</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="32">
+        <v>43024</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="32">
+        <v>43200</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="32">
+        <v>43227</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="32">
+        <v>43340</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="32">
+        <v>43341</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="32">
+        <v>43594</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="32">
+        <v>43654</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="32">
+        <v>43656</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="18"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="18"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="18"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="18"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="18"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="18"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="18"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="18"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="18"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C62" xr:uid="{00000000-0002-0000-0900-000000000000}">
+      <formula1>"add,update,delete"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P54"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E402E2F-A31B-4669-8A1D-94480E7052B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7151C9-BED7-4F2F-AD73-5425217A48E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="331">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1341,10 +1341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增表(新版后台用表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>organ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1382,6 +1378,41 @@
   </si>
   <si>
     <t>表名：region_fence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etime1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etime2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stime3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etime3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.2</t>
+  </si>
+  <si>
+    <t>region_fence化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加检测时间的区间字段（共3组时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7001,10 +7032,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:P44"/>
+  <dimension ref="B1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7228,7 +7259,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>112</v>
@@ -7250,7 +7281,7 @@
     <row r="12" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -7273,7 +7304,7 @@
     <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -7296,14 +7327,14 @@
     <row r="14" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>324</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>318</v>
+        <v>161</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -7319,16 +7350,14 @@
     <row r="15" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>320</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7344,16 +7373,14 @@
     <row r="16" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>319</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -7366,90 +7393,116 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="47" t="s">
+    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E21" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F21" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -7497,7 +7550,9 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="52" t="s">
+        <v>321</v>
+      </c>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -7851,6 +7906,74 @@
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12024,7 +12147,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12407,7 +12530,7 @@
         <v>311</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F20" s="32">
         <v>43656</v>
@@ -12417,12 +12540,24 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="32">
+        <v>43656</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7151C9-BED7-4F2F-AD73-5425217A48E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22EAE2D-F9DB-4421-8542-D6E552CB44CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1369,10 +1369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开，关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,6 +1409,10 @@
   </si>
   <si>
     <t>增加检测时间的区间字段（共3组时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:开，0:关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7035,7 +7035,7 @@
   <dimension ref="B1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7259,7 +7259,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>112</v>
@@ -7281,7 +7281,7 @@
     <row r="12" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -7304,7 +7304,7 @@
     <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -7327,7 +7327,7 @@
     <row r="14" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -7350,7 +7350,7 @@
     <row r="15" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
@@ -7373,7 +7373,7 @@
     <row r="16" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
@@ -7396,7 +7396,7 @@
     <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>317</v>
@@ -7445,10 +7445,10 @@
         <v>313</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>316</v>
@@ -7551,7 +7551,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
@@ -8731,7 +8731,7 @@
   <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A10:XFD13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12541,16 +12541,16 @@
     </row>
     <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="F21" s="32">
         <v>43656</v>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22EAE2D-F9DB-4421-8542-D6E552CB44CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C349027-F8C0-4B9B-8E75-7EBB3E6D4907}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="7" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon" sheetId="4" r:id="rId1"/>
     <sheet name="Polygon_background" sheetId="13" r:id="rId2"/>
     <sheet name="Polyline" sheetId="3" r:id="rId3"/>
-    <sheet name="注记" sheetId="1" r:id="rId4"/>
+    <sheet name="point" sheetId="1" r:id="rId4"/>
     <sheet name="location" sheetId="5" r:id="rId5"/>
     <sheet name="asset_init_locate" sheetId="16" r:id="rId6"/>
     <sheet name="camera Info" sheetId="18" r:id="rId7"/>
@@ -26,20 +26,26 @@
     <sheet name="detain" sheetId="21" r:id="rId16"/>
     <sheet name="detain_fence化工厂" sheetId="24" r:id="rId17"/>
     <sheet name="danger" sheetId="22" r:id="rId18"/>
-    <sheet name="danger_fence化工厂" sheetId="25" r:id="rId19"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId20"/>
+    <sheet name="danger_fence化工厂" sheetId="27" r:id="rId19"/>
+    <sheet name="inspection_point化工厂" sheetId="25" r:id="rId20"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="340">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,10 +1218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>polygon的区域统计用表（服务看板的人数统计用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1229,10 +1231,6 @@
   </si>
   <si>
     <t>bison中的id，唯一，必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>polygon的滞留统计用表（滞留报警用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1285,10 +1283,6 @@
   <si>
     <t>新增表
 danger（危险区域报警用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>polygon的危险区域用表（危险区域报警用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1413,6 +1407,65 @@
   </si>
   <si>
     <t>1:开，0:关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.3</t>
+  </si>
+  <si>
+    <t>inspection_point化工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增表(新版后台用表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡更点用表（储存巡更点用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域统计用表（服务看板的人数统计用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞留统计用表（滞留报警用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险区域用表（危险区域报警用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：inspection_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效半径，单位：米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡更点坐标，必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4193,7 +4246,7 @@
         <v>153</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4353,14 +4406,14 @@
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -4422,7 +4475,7 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
@@ -4504,7 +4557,7 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5264,7 +5317,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
@@ -6316,7 +6369,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6351,7 +6404,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -6437,16 +6490,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="E7" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="F7" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -7034,8 +7087,8 @@
   </sheetPr>
   <dimension ref="B1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7070,7 +7123,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -7156,16 +7209,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -7256,16 +7309,16 @@
     <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7281,7 +7334,7 @@
     <row r="12" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -7304,7 +7357,7 @@
     <row r="13" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -7327,7 +7380,7 @@
     <row r="14" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -7350,7 +7403,7 @@
     <row r="15" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
@@ -7373,7 +7426,7 @@
     <row r="16" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
@@ -7396,7 +7449,7 @@
     <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -7419,14 +7472,14 @@
     <row r="18" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -7442,16 +7495,16 @@
     <row r="19" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -7467,16 +7520,16 @@
     <row r="20" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -7551,7 +7604,7 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="52" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
@@ -7987,7 +8040,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8022,7 +8075,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -8108,16 +8161,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -8208,16 +8261,16 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="36"/>
       <c r="C11" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>292</v>
-      </c>
       <c r="E11" s="62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -8292,7 +8345,7 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="36"/>
       <c r="C15" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
@@ -8731,7 +8784,7 @@
   <dimension ref="B1:P42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8766,7 +8819,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -8852,16 +8905,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -8952,14 +9005,14 @@
     <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -9021,16 +9074,16 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
       <c r="C14" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>292</v>
-      </c>
       <c r="E14" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
@@ -9105,7 +9158,7 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
       <c r="C18" s="52" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
@@ -9541,7 +9594,7 @@
   <dimension ref="B1:P38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9576,7 +9629,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -9662,16 +9715,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -9821,7 +9874,7 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
       <c r="C14" s="52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -10253,14 +10306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADED41-395A-4A8F-8993-00A4449A299D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE9C0CE-2E1E-4562-9112-F0703E972810}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="B1:P41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10295,7 +10348,7 @@
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="52" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -10381,16 +10434,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -10481,14 +10534,14 @@
     <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -10609,7 +10662,7 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="36"/>
       <c r="C17" s="52" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
@@ -12142,12 +12195,754 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADED41-395A-4A8F-8993-00A4449A299D}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="13.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12441,16 +13236,16 @@
     </row>
     <row r="16" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F16" s="32">
         <v>43340</v>
@@ -12461,16 +13256,16 @@
     </row>
     <row r="17" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F17" s="32">
         <v>43341</v>
@@ -12481,16 +13276,16 @@
     </row>
     <row r="18" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F18" s="32">
         <v>43594</v>
@@ -12501,16 +13296,16 @@
     </row>
     <row r="19" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F19" s="32">
         <v>43654</v>
@@ -12521,16 +13316,16 @@
     </row>
     <row r="20" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F20" s="32">
         <v>43656</v>
@@ -12541,16 +13336,16 @@
     </row>
     <row r="21" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F21" s="32">
         <v>43656</v>
@@ -12560,12 +13355,24 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="19"/>
+      <c r="B22" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="32">
+        <v>43700</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
@@ -13963,7 +14770,7 @@
   <dimension ref="B1:P49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D621AE7-337E-4B74-A862-861B5AC4D06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C2AA04-E521-49B9-B1CA-FF90AB1567D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2055" windowWidth="20730" windowHeight="11160" tabRatio="996" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon_background" sheetId="13" r:id="rId1"/>
@@ -18,20 +18,23 @@
     <sheet name="fence_criminal" sheetId="28" r:id="rId8"/>
     <sheet name="fence_caller" sheetId="23" r:id="rId9"/>
     <sheet name="fence_region" sheetId="26" r:id="rId10"/>
-    <sheet name="fence_detain" sheetId="24" r:id="rId11"/>
-    <sheet name="fence_danger" sheetId="27" r:id="rId12"/>
-    <sheet name="fence_work" sheetId="30" r:id="rId13"/>
-    <sheet name="fence_fourcolor" sheetId="31" r:id="rId14"/>
-    <sheet name="inspection_point" sheetId="25" r:id="rId15"/>
-    <sheet name="asset_init_locate（bison）" sheetId="16" r:id="rId16"/>
-    <sheet name="camera Info（bison）" sheetId="18" r:id="rId17"/>
-    <sheet name="attendance fence（bison）" sheetId="17" r:id="rId18"/>
-    <sheet name="region（bison）" sheetId="20" r:id="rId19"/>
-    <sheet name="detain（bison）" sheetId="21" r:id="rId20"/>
-    <sheet name="danger（bison）" sheetId="22" r:id="rId21"/>
-    <sheet name="poi collection（网页）" sheetId="12" r:id="rId22"/>
-    <sheet name="electronic fence（网页）" sheetId="15" r:id="rId23"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId24"/>
+    <sheet name="fence_contractor" sheetId="32" r:id="rId11"/>
+    <sheet name="fence_detain" sheetId="24" r:id="rId12"/>
+    <sheet name="fence_danger" sheetId="27" r:id="rId13"/>
+    <sheet name="fence_work" sheetId="30" r:id="rId14"/>
+    <sheet name="fence_fourcolor" sheetId="31" r:id="rId15"/>
+    <sheet name="fence_configpot" sheetId="33" r:id="rId16"/>
+    <sheet name="fence_configarea" sheetId="34" r:id="rId17"/>
+    <sheet name="inspection_point" sheetId="25" r:id="rId18"/>
+    <sheet name="asset_init_locate（bison）" sheetId="16" r:id="rId19"/>
+    <sheet name="camera Info（bison）" sheetId="18" r:id="rId20"/>
+    <sheet name="attendance fence（bison）" sheetId="17" r:id="rId21"/>
+    <sheet name="region（bison）" sheetId="20" r:id="rId22"/>
+    <sheet name="detain（bison）" sheetId="21" r:id="rId23"/>
+    <sheet name="danger（bison）" sheetId="22" r:id="rId24"/>
+    <sheet name="poi collection（网页）" sheetId="12" r:id="rId25"/>
+    <sheet name="electronic fence（网页）" sheetId="15" r:id="rId26"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId27"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="378">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1509,31 +1512,155 @@
     <t>v1.2.1</t>
   </si>
   <si>
+    <t>化工厂增加四色图的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：fence_fourcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#222222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.2</t>
+  </si>
+  <si>
     <t>fence_fourcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化工厂增加四色图的表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：fence_fourcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#222222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化工厂-四色图用表</t>
+  </si>
+  <si>
+    <t>fence_contractor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂增加承包商区域表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：fence_contractor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置-承包商区域统计用表（区域人数统计用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作区，1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>休息区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围栏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractor_uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目id，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂配置-点框配置用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂配置-四色图用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：fence_configpot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：fence_configarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.3</t>
+  </si>
+  <si>
+    <t>fence_configpot
+fence_configarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂增加点框配置表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1938,7 +2065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2036,6 +2163,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3755,6 +3888,726 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FA3137-851A-448C-A84F-6B52AD0E13DD}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:K48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="14.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8E3D4F-0C30-4387-9708-85015F89F25D}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -4382,7 +5235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE9C0CE-2E1E-4562-9112-F0703E972810}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -4990,7 +5843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334DE065-6B5F-4FA1-AB7E-35FA6272CE87}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -4998,7 +5851,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5596,15 +6449,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE683C6-7E88-4429-AA7F-55BEB8467DAB}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5634,7 +6487,7 @@
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="2"/>
@@ -5798,16 +6651,16 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5862,7 +6715,7 @@
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6168,7 +7021,1153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5184FEA4-C741-410C-87F8-2324908EA58C}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1522FF-6BF2-4B1A-BE23-61AF86B40C74}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADED41-395A-4A8F-8993-00A4449A299D}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -6740,7 +8739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:K48"/>
   <sheetViews>
@@ -7412,1757 +9411,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555419B-A5B4-40B5-8369-E068ACA90498}">
-  <dimension ref="B1:K47"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
-  <dimension ref="B1:K40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="35"/>
-    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
-      <c r="C7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="8" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
-  <dimension ref="B1:K38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="35"/>
-    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="36"/>
-      <c r="C3" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
-      <c r="C7" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="C10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="36"/>
-      <c r="C14" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9893,6 +10141,1757 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555419B-A5B4-40B5-8369-E068ACA90498}">
+  <dimension ref="B1:K47"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
+  <dimension ref="B1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
+  <dimension ref="B1:K38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="11.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36"/>
+      <c r="C9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="36"/>
+      <c r="C14" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B918E-F7F0-4225-8E2E-A870DF8C9BF9}">
   <dimension ref="B1:K39"/>
   <sheetViews>
@@ -10443,7 +12442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83408E44-36B6-4215-B050-13A2AF74066B}">
   <dimension ref="B1:K38"/>
   <sheetViews>
@@ -10974,7 +12973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K45"/>
   <sheetViews>
@@ -11596,7 +13595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:K42"/>
   <sheetViews>
@@ -12201,13 +14200,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12667,10 +14666,10 @@
         <v>120</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>350</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>351</v>
       </c>
       <c r="F24" s="32">
         <v>43844</v>
@@ -12680,20 +14679,44 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="19"/>
+      <c r="B25" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="32">
+        <v>43892</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="19"/>
+      <c r="B26" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="32">
+        <v>43906</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C2AA04-E521-49B9-B1CA-FF90AB1567D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0227B0D-DA92-4B6E-9BD5-FF6EECB17C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon_background" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="379">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1661,6 +1661,10 @@
   </si>
   <si>
     <t>化工厂增加点框配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，唯一，必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3892,10 +3896,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3990,17 +3994,17 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
-      <c r="C7" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>79</v>
+      <c r="E7" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>378</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -4008,59 +4012,59 @@
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
     </row>
-    <row r="8" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="36"/>
       <c r="C10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -4071,16 +4075,16 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="36"/>
       <c r="C11" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>362</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>3</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>0</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -4088,37 +4092,39 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
     </row>
-    <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="36"/>
+      <c r="C12" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>272</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>285</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>273</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -4129,14 +4135,14 @@
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -4147,14 +4153,14 @@
     <row r="15" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -4165,14 +4171,14 @@
     <row r="16" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4183,14 +4189,14 @@
     <row r="17" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4201,14 +4207,14 @@
     <row r="18" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4219,16 +4225,14 @@
     <row r="19" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4239,14 +4243,16 @@
     <row r="20" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>366</v>
+        <v>282</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4254,32 +4260,38 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="47" t="s">
+    <row r="21" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F22" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -4300,9 +4312,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
-      <c r="C24" s="52" t="s">
-        <v>359</v>
-      </c>
+      <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
       <c r="F24" s="36"/>
@@ -4314,7 +4324,9 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="C25" s="52" t="s">
+        <v>359</v>
+      </c>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -4599,6 +4611,18 @@
       <c r="I48" s="36"/>
       <c r="J48" s="36"/>
       <c r="K48" s="36"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4615,7 +4639,7 @@
   <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4720,7 +4744,7 @@
         <v>256</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -5243,7 +5267,7 @@
   <dimension ref="B1:K42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5348,7 +5372,7 @@
         <v>256</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -7028,7 +7052,7 @@
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -8174,8 +8198,8 @@
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8280,7 +8304,7 @@
         <v>256</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>

--- a/Document/DB design.xlsx
+++ b/Document/DB design.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0227B0D-DA92-4B6E-9BD5-FF6EECB17C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DF644E-B593-42B7-B053-5E782FD7B231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="996" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polygon_background" sheetId="13" r:id="rId1"/>
@@ -22,19 +22,20 @@
     <sheet name="fence_detain" sheetId="24" r:id="rId12"/>
     <sheet name="fence_danger" sheetId="27" r:id="rId13"/>
     <sheet name="fence_work" sheetId="30" r:id="rId14"/>
-    <sheet name="fence_fourcolor" sheetId="31" r:id="rId15"/>
-    <sheet name="fence_configpot" sheetId="33" r:id="rId16"/>
-    <sheet name="fence_configarea" sheetId="34" r:id="rId17"/>
-    <sheet name="inspection_point" sheetId="25" r:id="rId18"/>
-    <sheet name="asset_init_locate（bison）" sheetId="16" r:id="rId19"/>
-    <sheet name="camera Info（bison）" sheetId="18" r:id="rId20"/>
-    <sheet name="attendance fence（bison）" sheetId="17" r:id="rId21"/>
-    <sheet name="region（bison）" sheetId="20" r:id="rId22"/>
-    <sheet name="detain（bison）" sheetId="21" r:id="rId23"/>
-    <sheet name="danger（bison）" sheetId="22" r:id="rId24"/>
-    <sheet name="poi collection（网页）" sheetId="12" r:id="rId25"/>
-    <sheet name="electronic fence（网页）" sheetId="15" r:id="rId26"/>
-    <sheet name="变更履历" sheetId="14" r:id="rId27"/>
+    <sheet name="fence_workarea" sheetId="35" r:id="rId15"/>
+    <sheet name="fence_fourcolor" sheetId="31" r:id="rId16"/>
+    <sheet name="fence_configpot" sheetId="33" r:id="rId17"/>
+    <sheet name="fence_configarea" sheetId="34" r:id="rId18"/>
+    <sheet name="inspection_point" sheetId="25" r:id="rId19"/>
+    <sheet name="asset_init_locate（bison）" sheetId="16" r:id="rId20"/>
+    <sheet name="camera Info（bison）" sheetId="18" r:id="rId21"/>
+    <sheet name="attendance fence（bison）" sheetId="17" r:id="rId22"/>
+    <sheet name="region（bison）" sheetId="20" r:id="rId23"/>
+    <sheet name="detain（bison）" sheetId="21" r:id="rId24"/>
+    <sheet name="danger（bison）" sheetId="22" r:id="rId25"/>
+    <sheet name="poi collection（网页）" sheetId="12" r:id="rId26"/>
+    <sheet name="electronic fence（网页）" sheetId="15" r:id="rId27"/>
+    <sheet name="变更履历" sheetId="14" r:id="rId28"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="385">
   <si>
     <t>文字列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1665,6 +1666,29 @@
   </si>
   <si>
     <t>id，唯一，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2.4</t>
+  </si>
+  <si>
+    <t>fence_workarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工厂增加作业管理区域表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置-作业管理区域用表（化工厂用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：fence_workarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警检测开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6474,6 +6498,708 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8159C008-51A2-4AF6-9453-F9D3695C902F}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="35"/>
+    <col min="3" max="3" width="14.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="36"/>
+      <c r="C3" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="36"/>
+      <c r="C6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="36"/>
+      <c r="C7" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="C10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="36"/>
+      <c r="C11" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="36"/>
+      <c r="C23" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE683C6-7E88-4429-AA7F-55BEB8467DAB}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -7045,7 +7771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5184FEA4-C741-410C-87F8-2324908EA58C}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -7617,7 +8343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1522FF-6BF2-4B1A-BE23-61AF86B40C74}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -8191,14 +8917,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ADED41-395A-4A8F-8993-00A4449A299D}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -8760,681 +9486,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:K48"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10165,6 +10216,681 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:K48"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F555419B-A5B4-40B5-8369-E068ACA90498}">
   <dimension ref="B1:K47"/>
   <sheetViews>
@@ -10819,7 +11545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B248F353-AF05-48D5-B0F8-000FF89FAE10}">
   <dimension ref="B1:K40"/>
   <sheetViews>
@@ -11384,7 +12110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4992C-8FC3-407E-AB24-301E21E12784}">
   <dimension ref="B1:K38"/>
   <sheetViews>
@@ -11915,7 +12641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B918E-F7F0-4225-8E2E-A870DF8C9BF9}">
   <dimension ref="B1:K39"/>
   <sheetViews>
@@ -12466,7 +13192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83408E44-36B6-4215-B050-13A2AF74066B}">
   <dimension ref="B1:K38"/>
   <sheetViews>
@@ -12997,7 +13723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K45"/>
   <sheetViews>
@@ -13619,7 +14345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:K42"/>
   <sheetViews>
@@ -14224,13 +14950,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14743,12 +15469,24 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="19"/>
+      <c r="B27" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="32">
+        <v>43944</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
